--- a/data/match_model_data_rarita_badteam.xlsx
+++ b/data/match_model_data_rarita_badteam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTL 4001\Assignment\GROUP_Z_ACC_PROJ_UNSW_2022\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C926F025-4870-4384-AE60-EACA11F20D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D4687-3338-48C8-A4BC-587583F85742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="315" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="match_model_data" sheetId="1" r:id="rId1"/>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,19 +1607,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>29229234</v>
+        <v>22892307</v>
       </c>
       <c r="D25">
-        <v>21973206</v>
+        <v>19606225</v>
       </c>
       <c r="E25">
-        <v>29944751</v>
+        <v>24088798</v>
       </c>
       <c r="F25">
-        <v>17759716</v>
+        <v>15151245</v>
       </c>
       <c r="H25">
-        <v>25678089</v>
+        <v>21211179</v>
       </c>
     </row>
   </sheetData>
@@ -1672,23 +1672,23 @@
       </c>
       <c r="C2">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A2,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B2,match_model_data!$B:$B,0))</f>
-        <v>9036089.8355189003</v>
+        <v>2699162.8355189003</v>
       </c>
       <c r="D2">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A2,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B2,match_model_data!$B:$B,0))</f>
-        <v>5134090.4405811988</v>
+        <v>2767109.4405811988</v>
       </c>
       <c r="E2">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A2,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B2,match_model_data!$B:$B,0))</f>
-        <v>4265515.7177655995</v>
+        <v>-1590437.2822344005</v>
       </c>
       <c r="F2">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A2,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B2,match_model_data!$B:$B,0))</f>
-        <v>2054401.1034143995</v>
+        <v>-554069.89658560045</v>
       </c>
       <c r="G2">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A2,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B2,match_model_data!$B:$B,0))</f>
-        <v>6115104.9675768986</v>
+        <v>1648194.9675768986</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,23 +1700,23 @@
       </c>
       <c r="C3">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A3,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B3,match_model_data!$B:$B,0))</f>
-        <v>7986500.4373967014</v>
+        <v>1649573.4373967014</v>
       </c>
       <c r="D3">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A3,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B3,match_model_data!$B:$B,0))</f>
-        <v>5323991.8149708994</v>
+        <v>2957010.8149708994</v>
       </c>
       <c r="E3">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A3,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B3,match_model_data!$B:$B,0))</f>
-        <v>8973034.1128683984</v>
+        <v>3117081.1128683984</v>
       </c>
       <c r="F3">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A3,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B3,match_model_data!$B:$B,0))</f>
-        <v>-809894.90988010168</v>
+        <v>-3418365.9098801017</v>
       </c>
       <c r="G3">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A3,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B3,match_model_data!$B:$B,0))</f>
-        <v>6398013.0295751989</v>
+        <v>1931103.0295751989</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,23 +1728,23 @@
       </c>
       <c r="C4">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A4,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B4,match_model_data!$B:$B,0))</f>
-        <v>8291748.4706925005</v>
+        <v>1954821.4706925005</v>
       </c>
       <c r="D4">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A4,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B4,match_model_data!$B:$B,0))</f>
-        <v>3172852.4434860982</v>
+        <v>805871.4434860982</v>
       </c>
       <c r="E4">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A4,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B4,match_model_data!$B:$B,0))</f>
-        <v>-902572.76060720161</v>
+        <v>-6758525.7606072016</v>
       </c>
       <c r="F4">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A4,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B4,match_model_data!$B:$B,0))</f>
-        <v>2306215.3099920992</v>
+        <v>-302255.69000790082</v>
       </c>
       <c r="G4">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A4,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B4,match_model_data!$B:$B,0))</f>
-        <v>4214497.6768628992</v>
+        <v>-252412.32313710079</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,23 +1756,23 @@
       </c>
       <c r="C5">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A5,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B5,match_model_data!$B:$B,0))</f>
-        <v>5234698.9664787017</v>
+        <v>-1102228.0335212983</v>
       </c>
       <c r="D5">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A5,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B5,match_model_data!$B:$B,0))</f>
-        <v>3342123.3008447997</v>
+        <v>975142.30084479973</v>
       </c>
       <c r="E5">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A5,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B5,match_model_data!$B:$B,0))</f>
-        <v>3084931.1581045017</v>
+        <v>-2771021.8418954983</v>
       </c>
       <c r="F5">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A5,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B5,match_model_data!$B:$B,0))</f>
-        <v>2026605.7604677007</v>
+        <v>-581865.23953229934</v>
       </c>
       <c r="G5">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A5,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B5,match_model_data!$B:$B,0))</f>
-        <v>3863978.0132700987</v>
+        <v>-602931.98672990128</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,23 +1784,23 @@
       </c>
       <c r="C6">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A6,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B6,match_model_data!$B:$B,0))</f>
-        <v>5890679.5992339998</v>
+        <v>-446247.40076600015</v>
       </c>
       <c r="D6">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A6,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B6,match_model_data!$B:$B,0))</f>
-        <v>3274258.8798185997</v>
+        <v>907277.87981859967</v>
       </c>
       <c r="E6">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A6,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B6,match_model_data!$B:$B,0))</f>
-        <v>6223285.7191436999</v>
+        <v>367332.71914369985</v>
       </c>
       <c r="F6">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A6,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B6,match_model_data!$B:$B,0))</f>
-        <v>3755010.4427058008</v>
+        <v>1146539.4427058008</v>
       </c>
       <c r="G6">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A6,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B6,match_model_data!$B:$B,0))</f>
-        <v>4805576.0724731013</v>
+        <v>338666.07247310132</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,23 +1812,23 @@
       </c>
       <c r="C7">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A7,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B7,match_model_data!$B:$B,0))</f>
-        <v>13619857.0768134</v>
+        <v>7282930.0768133998</v>
       </c>
       <c r="D7">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A7,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B7,match_model_data!$B:$B,0))</f>
-        <v>4207993.4922255017</v>
+        <v>1841012.4922255017</v>
       </c>
       <c r="E7">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A7,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B7,match_model_data!$B:$B,0))</f>
-        <v>13410333.6499137</v>
+        <v>7554380.6499137003</v>
       </c>
       <c r="F7">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A7,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B7,match_model_data!$B:$B,0))</f>
-        <v>1959861.2823731005</v>
+        <v>-648609.71762689948</v>
       </c>
       <c r="G7">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A7,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B7,match_model_data!$B:$B,0))</f>
-        <v>9099266.5325777996</v>
+        <v>4632356.5325777996</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,23 +1840,23 @@
       </c>
       <c r="C8">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A8,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B8,match_model_data!$B:$B,0))</f>
-        <v>11022364.260328501</v>
+        <v>4685437.2603285015</v>
       </c>
       <c r="D8">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A8,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B8,match_model_data!$B:$B,0))</f>
-        <v>5607253.6218845006</v>
+        <v>3240272.6218845006</v>
       </c>
       <c r="E8">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A8,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B8,match_model_data!$B:$B,0))</f>
-        <v>7749407.1712470986</v>
+        <v>1893454.1712470986</v>
       </c>
       <c r="F8">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A8,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B8,match_model_data!$B:$B,0))</f>
-        <v>1799458.0278050993</v>
+        <v>-809012.97219490074</v>
       </c>
       <c r="G8">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A8,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B8,match_model_data!$B:$B,0))</f>
-        <v>7619704.0817410015</v>
+        <v>3152794.0817410015</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,23 +1868,23 @@
       </c>
       <c r="C9">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A9,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B9,match_model_data!$B:$B,0))</f>
-        <v>10568437.155689798</v>
+        <v>4231510.1556897983</v>
       </c>
       <c r="D9">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A9,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B9,match_model_data!$B:$B,0))</f>
-        <v>5672075.8047484998</v>
+        <v>3305094.8047484998</v>
       </c>
       <c r="E9">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A9,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B9,match_model_data!$B:$B,0))</f>
-        <v>9522503.0695634</v>
+        <v>3666550.0695634</v>
       </c>
       <c r="F9">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A9,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B9,match_model_data!$B:$B,0))</f>
-        <v>2389284.6670830995</v>
+        <v>-219186.33291690052</v>
       </c>
       <c r="G9">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A9,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B9,match_model_data!$B:$B,0))</f>
-        <v>7854213.0589057989</v>
+        <v>3387303.0589057989</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,23 +1896,23 @@
       </c>
       <c r="C10">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A10,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B10,match_model_data!$B:$B,0))</f>
-        <v>9340757.0695923008</v>
+        <v>3003830.0695923008</v>
       </c>
       <c r="D10">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A10,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B10,match_model_data!$B:$B,0))</f>
-        <v>6957651.1378045008</v>
+        <v>4590670.1378045008</v>
       </c>
       <c r="E10">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A10,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B10,match_model_data!$B:$B,0))</f>
-        <v>5129741.1631865986</v>
+        <v>-726211.83681340143</v>
       </c>
       <c r="F10">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A10,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B10,match_model_data!$B:$B,0))</f>
-        <v>3619255.9661267996</v>
+        <v>1010784.9661267996</v>
       </c>
       <c r="G10">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A10,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B10,match_model_data!$B:$B,0))</f>
-        <v>7188397.4656443</v>
+        <v>2721487.4656443</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1924,23 +1924,23 @@
       </c>
       <c r="C11">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A11,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B11,match_model_data!$B:$B,0))</f>
-        <v>11645892.209895901</v>
+        <v>5308965.2098959014</v>
       </c>
       <c r="D11">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A11,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B11,match_model_data!$B:$B,0))</f>
-        <v>3067461.6056336015</v>
+        <v>700480.60563360155</v>
       </c>
       <c r="E11">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A11,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B11,match_model_data!$B:$B,0))</f>
-        <v>2229827.2313963994</v>
+        <v>-3626125.7686036006</v>
       </c>
       <c r="F11">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A11,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B11,match_model_data!$B:$B,0))</f>
-        <v>2234408.6730313003</v>
+        <v>-374062.32696869969</v>
       </c>
       <c r="G11">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A11,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B11,match_model_data!$B:$B,0))</f>
-        <v>5958861.7634493001</v>
+        <v>1491951.7634493001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,23 +1952,23 @@
       </c>
       <c r="C12">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A12,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B12,match_model_data!$B:$B,0))</f>
-        <v>11856849.696236301</v>
+        <v>5519922.6962363012</v>
       </c>
       <c r="D12">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A12,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B12,match_model_data!$B:$B,0))</f>
-        <v>8542964.2748566009</v>
+        <v>6175983.2748566009</v>
       </c>
       <c r="E12">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A12,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B12,match_model_data!$B:$B,0))</f>
-        <v>4600140.8431136012</v>
+        <v>-1255812.1568863988</v>
       </c>
       <c r="F12">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A12,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B12,match_model_data!$B:$B,0))</f>
-        <v>2670599.1691101007</v>
+        <v>62128.169110100716</v>
       </c>
       <c r="G12">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A12,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B12,match_model_data!$B:$B,0))</f>
-        <v>8497285.2490644008</v>
+        <v>4030375.2490644008</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1980,23 +1980,23 @@
       </c>
       <c r="C13">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A13,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B13,match_model_data!$B:$B,0))</f>
-        <v>9171767.926117301</v>
+        <v>2834840.926117301</v>
       </c>
       <c r="D13">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A13,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B13,match_model_data!$B:$B,0))</f>
-        <v>5152384.8144644983</v>
+        <v>2785403.8144644983</v>
       </c>
       <c r="E13">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A13,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B13,match_model_data!$B:$B,0))</f>
-        <v>4861533.4855240993</v>
+        <v>-994419.51447590068</v>
       </c>
       <c r="F13">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A13,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B13,match_model_data!$B:$B,0))</f>
-        <v>5717873.5591676999</v>
+        <v>3109402.5591676999</v>
       </c>
       <c r="G13">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A13,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B13,match_model_data!$B:$B,0))</f>
-        <v>6612504.772049401</v>
+        <v>2145594.772049401</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2008,23 +2008,23 @@
       </c>
       <c r="C14">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A14,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B14,match_model_data!$B:$B,0))</f>
-        <v>8270526.3981963992</v>
+        <v>1933599.3981963992</v>
       </c>
       <c r="D14">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A14,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B14,match_model_data!$B:$B,0))</f>
-        <v>4394691.3088666983</v>
+        <v>2027710.3088666983</v>
       </c>
       <c r="E14">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A14,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B14,match_model_data!$B:$B,0))</f>
-        <v>8665450.0759189986</v>
+        <v>2809497.0759189986</v>
       </c>
       <c r="F14">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A14,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B14,match_model_data!$B:$B,0))</f>
-        <v>3380069.6448667999</v>
+        <v>771598.64486679994</v>
       </c>
       <c r="G14">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A14,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B14,match_model_data!$B:$B,0))</f>
-        <v>6488349.2386325002</v>
+        <v>2021439.2386325002</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,23 +2036,23 @@
       </c>
       <c r="C15">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A15,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B15,match_model_data!$B:$B,0))</f>
-        <v>10475113.906995501</v>
+        <v>4138186.9069955014</v>
       </c>
       <c r="D15">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A15,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B15,match_model_data!$B:$B,0))</f>
-        <v>3107324.5099322982</v>
+        <v>740343.50993229821</v>
       </c>
       <c r="E15">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A15,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B15,match_model_data!$B:$B,0))</f>
-        <v>10001380.409826498</v>
+        <v>4145427.4098264985</v>
       </c>
       <c r="F15">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A15,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B15,match_model_data!$B:$B,0))</f>
-        <v>2650735.1867095008</v>
+        <v>42264.186709500849</v>
       </c>
       <c r="G15">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A15,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B15,match_model_data!$B:$B,0))</f>
-        <v>6998477.3340067007</v>
+        <v>2531567.3340067007</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,23 +2064,23 @@
       </c>
       <c r="C16">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A16,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B16,match_model_data!$B:$B,0))</f>
-        <v>7384634.8469958007</v>
+        <v>1047707.8469958007</v>
       </c>
       <c r="D16">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A16,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B16,match_model_data!$B:$B,0))</f>
-        <v>7298330.5146251991</v>
+        <v>4931349.5146251991</v>
       </c>
       <c r="E16">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A16,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B16,match_model_data!$B:$B,0))</f>
-        <v>14175158.640952701</v>
+        <v>8319205.6409527007</v>
       </c>
       <c r="F16">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A16,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B16,match_model_data!$B:$B,0))</f>
-        <v>1168125.8241999</v>
+        <v>-1440345.1758001</v>
       </c>
       <c r="G16">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A16,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B16,match_model_data!$B:$B,0))</f>
-        <v>8022755.0502354018</v>
+        <v>3555845.0502354018</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2092,23 +2092,23 @@
       </c>
       <c r="C17">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A17,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B17,match_model_data!$B:$B,0))</f>
-        <v>12287314.192453299</v>
+        <v>5950387.1924532987</v>
       </c>
       <c r="D17">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A17,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B17,match_model_data!$B:$B,0))</f>
-        <v>7294537.2525610998</v>
+        <v>4927556.2525610998</v>
       </c>
       <c r="E17">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A17,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B17,match_model_data!$B:$B,0))</f>
-        <v>12896570.9141392</v>
+        <v>7040617.9141392</v>
       </c>
       <c r="F17">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A17,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B17,match_model_data!$B:$B,0))</f>
-        <v>-1852496.098741699</v>
+        <v>-4460967.098741699</v>
       </c>
       <c r="G17">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A17,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B17,match_model_data!$B:$B,0))</f>
-        <v>9297095.6826904006</v>
+        <v>4830185.6826904006</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,23 +2120,23 @@
       </c>
       <c r="C18">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A18,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B18,match_model_data!$B:$B,0))</f>
-        <v>14832058.3729186</v>
+        <v>8495131.3729186002</v>
       </c>
       <c r="D18">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A18,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B18,match_model_data!$B:$B,0))</f>
-        <v>5150126.8017577007</v>
+        <v>2783145.8017577007</v>
       </c>
       <c r="E18">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A18,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B18,match_model_data!$B:$B,0))</f>
-        <v>11954244.182658602</v>
+        <v>6098291.1826586016</v>
       </c>
       <c r="F18">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A18,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B18,match_model_data!$B:$B,0))</f>
-        <v>4157779.1108328998</v>
+        <v>1549308.1108328998</v>
       </c>
       <c r="G18">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A18,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B18,match_model_data!$B:$B,0))</f>
-        <v>9817728.1068050005</v>
+        <v>5350818.1068050005</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2148,23 +2148,23 @@
       </c>
       <c r="C19">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A19,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B19,match_model_data!$B:$B,0))</f>
-        <v>3350818.1999473982</v>
+        <v>-2986108.8000526018</v>
       </c>
       <c r="D19">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A19,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B19,match_model_data!$B:$B,0))</f>
-        <v>7024185.8246212993</v>
+        <v>4657204.8246212993</v>
       </c>
       <c r="E19">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A19,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B19,match_model_data!$B:$B,0))</f>
-        <v>6116498.1792891994</v>
+        <v>260545.17928919941</v>
       </c>
       <c r="F19">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A19,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B19,match_model_data!$B:$B,0))</f>
-        <v>4396823.1041215006</v>
+        <v>1788352.1041215006</v>
       </c>
       <c r="G19">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A19,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B19,match_model_data!$B:$B,0))</f>
-        <v>5284530.5964521989</v>
+        <v>817620.59645219892</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2176,23 +2176,23 @@
       </c>
       <c r="C20">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A20,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B20,match_model_data!$B:$B,0))</f>
-        <v>14198967.1524256</v>
+        <v>7862040.1524256002</v>
       </c>
       <c r="D20">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A20,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B20,match_model_data!$B:$B,0))</f>
-        <v>4837870.8265773989</v>
+        <v>2470889.8265773989</v>
       </c>
       <c r="E20">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A20,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B20,match_model_data!$B:$B,0))</f>
-        <v>11666202.107549001</v>
+        <v>5810249.1075490005</v>
       </c>
       <c r="F20">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A20,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B20,match_model_data!$B:$B,0))</f>
-        <v>966805.55789339915</v>
+        <v>-1641665.4421066009</v>
       </c>
       <c r="G20">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A20,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B20,match_model_data!$B:$B,0))</f>
-        <v>9131505.6990003008</v>
+        <v>4664595.6990003008</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2204,23 +2204,23 @@
       </c>
       <c r="C21">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A21,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B21,match_model_data!$B:$B,0))</f>
-        <v>5930866.5189856999</v>
+        <v>-406060.48101430014</v>
       </c>
       <c r="D21">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A21,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B21,match_model_data!$B:$B,0))</f>
-        <v>3918111.9034628011</v>
+        <v>1551130.9034628011</v>
       </c>
       <c r="E21">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A21,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B21,match_model_data!$B:$B,0))</f>
-        <v>3841463.3221780993</v>
+        <v>-2014489.6778219007</v>
       </c>
       <c r="F21">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A21,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B21,match_model_data!$B:$B,0))</f>
-        <v>395409.21011710167</v>
+        <v>-2213061.7898828983</v>
       </c>
       <c r="G21">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A21,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B21,match_model_data!$B:$B,0))</f>
-        <v>4315840.9585697018</v>
+        <v>-151069.04143029824</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,23 +2232,23 @@
       </c>
       <c r="C22">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A22,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B22,match_model_data!$B:$B,0))</f>
-        <v>8301481.1738279015</v>
+        <v>1964554.1738279015</v>
       </c>
       <c r="D22">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A22,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B22,match_model_data!$B:$B,0))</f>
-        <v>5415406.0810249001</v>
+        <v>3048425.0810249001</v>
       </c>
       <c r="E22">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A22,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B22,match_model_data!$B:$B,0))</f>
-        <v>5650436.9449354</v>
+        <v>-205516.05506459996</v>
       </c>
       <c r="F22">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A22,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B22,match_model_data!$B:$B,0))</f>
-        <v>1536208.0781685002</v>
+        <v>-1072262.9218314998</v>
       </c>
       <c r="G22">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A22,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B22,match_model_data!$B:$B,0))</f>
-        <v>6154966.544313699</v>
+        <v>1688056.544313699</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2260,23 +2260,23 @@
       </c>
       <c r="C23">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A23,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B23,match_model_data!$B:$B,0))</f>
-        <v>10670433.188239299</v>
+        <v>4333506.1882392988</v>
       </c>
       <c r="D23">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A23,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B23,match_model_data!$B:$B,0))</f>
-        <v>2725765.8210830018</v>
+        <v>358784.82108300179</v>
       </c>
       <c r="E23">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A23,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B23,match_model_data!$B:$B,0))</f>
-        <v>13734344.500987399</v>
+        <v>7878391.5009873994</v>
       </c>
       <c r="F23">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A23,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B23,match_model_data!$B:$B,0))</f>
-        <v>1265916.1883071996</v>
+        <v>-1342554.8116928004</v>
       </c>
       <c r="G23">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A23,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B23,match_model_data!$B:$B,0))</f>
-        <v>7483582.0206882991</v>
+        <v>3016672.0206882991</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,23 +2288,23 @@
       </c>
       <c r="C24">
         <f>INDEX(match_model_data!C:C,MATCH(model!$A24,match_model_data!$B:$B,0))-INDEX(match_model_data!C:C,MATCH(model!$B24,match_model_data!$B:$B,0))</f>
-        <v>11947013.261771701</v>
+        <v>5610086.2617717013</v>
       </c>
       <c r="D24">
         <f>INDEX(match_model_data!D:D,MATCH(model!$A24,match_model_data!$B:$B,0))-INDEX(match_model_data!D:D,MATCH(model!$B24,match_model_data!$B:$B,0))</f>
-        <v>1121932.2302650996</v>
+        <v>-1245048.7697349004</v>
       </c>
       <c r="E24">
         <f>INDEX(match_model_data!E:E,MATCH(model!$A24,match_model_data!$B:$B,0))-INDEX(match_model_data!E:E,MATCH(model!$B24,match_model_data!$B:$B,0))</f>
-        <v>5621823.4965848997</v>
+        <v>-234129.50341510028</v>
       </c>
       <c r="F24">
         <f>INDEX(match_model_data!F:F,MATCH(model!$A24,match_model_data!$B:$B,0))-INDEX(match_model_data!F:F,MATCH(model!$B24,match_model_data!$B:$B,0))</f>
-        <v>1392224.2515869997</v>
+        <v>-1216246.7484130003</v>
       </c>
       <c r="G24">
         <f>INDEX(match_model_data!H:H,MATCH(model!$A24,match_model_data!$B:$B,0))-INDEX(match_model_data!H:H,MATCH(model!$B24,match_model_data!$B:$B,0))</f>
-        <v>5901059.4739004001</v>
+        <v>1434149.4739004001</v>
       </c>
     </row>
   </sheetData>
